--- a/excel2json-master/PlayerSkill_Data.xlsx
+++ b/excel2json-master/PlayerSkill_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E36340-921E-4A34-AB74-97CE67EBC2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F824DFCD-153D-4BA0-9C5B-689BAF0A95A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12630" yWindow="2940" windowWidth="15030" windowHeight="10125" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>#PlayerSkill[{}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,14 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Chargeslashblue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AoEslashgreen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SkillID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,22 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Explosion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sword1Default</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sword1Skill1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sword1Skill2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sword2Default</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,6 +121,38 @@
   </si>
   <si>
     <t>Sword3Skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JumpSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneSlash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변의 적에게 데미지를 준다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방의 적에게 데미지를 준다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssassinAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StingAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어세신 데미지를 준다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지를 준다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -152,7 +160,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,9 +297,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -329,7 +337,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -435,7 +443,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -577,7 +585,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -587,279 +595,299 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630F20CA-10B8-4562-8C1C-8351893C715C}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="8" customWidth="1"/>
-    <col min="3" max="7" width="15.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" style="8" customWidth="1"/>
+    <col min="3" max="7" width="15.09765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.59765625" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="5">
         <v>101</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G2" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1">
+    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5">
         <v>102</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7">
         <v>12</v>
       </c>
-      <c r="F3" s="7">
-        <v>50</v>
-      </c>
       <c r="G3" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="6"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12" s="4" customFormat="1">
+    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B4" s="5">
         <v>103</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" s="7">
         <v>100</v>
       </c>
       <c r="G4" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" s="4" customFormat="1">
+    <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B5" s="5">
+        <v>104</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="7">
+        <v>100</v>
+      </c>
+      <c r="G5" s="7">
+        <v>20</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="5">
         <v>201</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="7">
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7">
         <v>1</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G6" s="7">
         <v>1</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H6" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="4" customFormat="1">
-      <c r="B6" s="5">
+    <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="5">
         <v>202</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7">
+      <c r="E7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="7">
         <v>50</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G7" s="7">
         <v>2</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="4" customFormat="1">
-      <c r="B7" s="5">
+    <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="5">
         <v>203</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="C8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="7">
+      <c r="E8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7">
         <v>100</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G8" s="7">
         <v>3</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H8" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="4" customFormat="1">
-      <c r="B8" s="5">
+    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="5">
         <v>301</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="7">
+      <c r="E9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G9" s="7">
         <v>1</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H9" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="4" customFormat="1">
-      <c r="B9" s="5">
+    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="5">
         <v>302</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="C10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="7">
+      <c r="E10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7">
         <v>50</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G10" s="7">
         <v>2</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="4" customFormat="1">
-      <c r="B10" s="5">
+    <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="5">
         <v>303</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="C11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="7">
+      <c r="E11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7">
         <v>100</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G11" s="7">
         <v>3</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H11" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="4" customFormat="1">
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" s="4" customFormat="1">
+    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>

--- a/excel2json-master/PlayerSkill_Data.xlsx
+++ b/excel2json-master/PlayerSkill_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F824DFCD-153D-4BA0-9C5B-689BAF0A95A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952382B5-4CD1-4E8A-B325-92D85FC4999C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -596,10 +596,10 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="16.69921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.69921875" style="8" customWidth="1"/>
@@ -613,7 +613,7 @@
     <col min="16" max="16" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -643,7 +643,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12">
       <c r="A2" s="5"/>
       <c r="B2" s="5">
         <v>101</v>
@@ -658,7 +658,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G2" s="7">
         <v>5</v>
@@ -671,7 +671,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" s="4" customFormat="1">
       <c r="B3" s="5">
         <v>102</v>
       </c>
@@ -685,7 +685,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G3" s="7">
         <v>10</v>
@@ -697,7 +697,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" s="4" customFormat="1">
       <c r="B4" s="5">
         <v>103</v>
       </c>
@@ -711,7 +711,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G4" s="7">
         <v>15</v>
@@ -723,7 +723,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" s="4" customFormat="1">
       <c r="B5" s="5">
         <v>104</v>
       </c>
@@ -737,7 +737,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="7">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="G5" s="7">
         <v>20</v>
@@ -746,7 +746,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" s="4" customFormat="1">
       <c r="B6" s="5">
         <v>201</v>
       </c>
@@ -769,7 +769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" s="4" customFormat="1">
       <c r="B7" s="5">
         <v>202</v>
       </c>
@@ -792,7 +792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" s="4" customFormat="1">
       <c r="B8" s="5">
         <v>203</v>
       </c>
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" s="4" customFormat="1">
       <c r="B9" s="5">
         <v>301</v>
       </c>
@@ -838,7 +838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" s="4" customFormat="1">
       <c r="B10" s="5">
         <v>302</v>
       </c>
@@ -861,7 +861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" s="4" customFormat="1">
       <c r="B11" s="5">
         <v>303</v>
       </c>
@@ -884,10 +884,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" s="4" customFormat="1">
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12">
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>

--- a/excel2json-master/PlayerSkill_Data.xlsx
+++ b/excel2json-master/PlayerSkill_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952382B5-4CD1-4E8A-B325-92D85FC4999C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218AF296-068A-40AF-90A7-BDFD0B0EBCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="22020" windowHeight="12336" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>#PlayerSkill[{}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +153,18 @@
   </si>
   <si>
     <t>데미지를 준다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackAngle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,7 +608,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -638,9 +650,15 @@
       <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12">
@@ -658,7 +676,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" s="7">
         <v>5</v>
@@ -666,9 +684,15 @@
       <c r="H2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="I2" s="4">
+        <v>2</v>
+      </c>
+      <c r="J2" s="5">
+        <v>2</v>
+      </c>
+      <c r="K2" s="5">
+        <v>45</v>
+      </c>
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1">
@@ -685,7 +709,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G3" s="7">
         <v>10</v>
@@ -693,8 +717,15 @@
       <c r="H3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="6"/>
+      <c r="I3" s="4">
+        <v>3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="K3" s="6">
+        <v>100</v>
+      </c>
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1">
@@ -711,7 +742,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="7">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G4" s="7">
         <v>15</v>
@@ -719,8 +750,15 @@
       <c r="H4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="I4" s="4">
+        <v>4</v>
+      </c>
+      <c r="J4" s="3">
+        <v>5</v>
+      </c>
+      <c r="K4" s="3">
+        <v>90</v>
+      </c>
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1">
@@ -737,13 +775,22 @@
         <v>10</v>
       </c>
       <c r="F5" s="7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G5" s="7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>27</v>
+      </c>
+      <c r="I5" s="4">
+        <v>5</v>
+      </c>
+      <c r="J5" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="K5" s="7">
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1">
@@ -768,6 +815,15 @@
       <c r="H6" s="11" t="s">
         <v>6</v>
       </c>
+      <c r="I6" s="4">
+        <v>3</v>
+      </c>
+      <c r="J6" s="5">
+        <v>2</v>
+      </c>
+      <c r="K6" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1">
       <c r="B7" s="5">
@@ -791,6 +847,15 @@
       <c r="H7" s="11" t="s">
         <v>1</v>
       </c>
+      <c r="I7" s="4">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1">
       <c r="B8" s="5">
@@ -814,6 +879,15 @@
       <c r="H8" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="I8" s="4">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5</v>
+      </c>
+      <c r="K8" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1">
       <c r="B9" s="5">
@@ -837,6 +911,15 @@
       <c r="H9" s="13" t="s">
         <v>5</v>
       </c>
+      <c r="I9" s="4">
+        <v>3</v>
+      </c>
+      <c r="J9" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="K9" s="7">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1">
       <c r="B10" s="5">
@@ -860,6 +943,15 @@
       <c r="H10" s="11" t="s">
         <v>2</v>
       </c>
+      <c r="I10" s="4">
+        <v>3</v>
+      </c>
+      <c r="J10" s="7">
+        <v>10</v>
+      </c>
+      <c r="K10" s="7">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:12" s="4" customFormat="1">
       <c r="B11" s="5">
@@ -882,6 +974,15 @@
       </c>
       <c r="H11" s="12" t="s">
         <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <v>3</v>
+      </c>
+      <c r="J11" s="7">
+        <v>10</v>
+      </c>
+      <c r="K11" s="7">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="4" customFormat="1">
